--- a/series_sc/personas_mes_contrato.xlsx
+++ b/series_sc/personas_mes_contrato.xlsx
@@ -365,9 +365,6 @@
     <t>Suma de Solicitudes de prestaciones por cesantía efectivamente pagadas</t>
   </si>
   <si>
-    <t>Solicitudes de prestaciones por cesantía efectivamente pagadas</t>
-  </si>
-  <si>
     <t>Contrato</t>
   </si>
   <si>
@@ -377,10 +374,13 @@
     <t>02</t>
   </si>
   <si>
-    <t>Afiliados que recibieron pago de la prestación por cesantía</t>
-  </si>
-  <si>
-    <t>Remuneración imponible promedio</t>
+    <t>Solicitudes de prestaciones por cesantia efectivamente pagadas</t>
+  </si>
+  <si>
+    <t>Afiliados que recibieron pago de la prestacion por cesantia</t>
+  </si>
+  <si>
+    <t>Remuneracion imponible promedio</t>
   </si>
 </sst>
 </file>
@@ -390,20 +390,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -546,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4579,8 +4570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4590,10 +4581,10 @@
         <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
         <v>118</v>
@@ -4607,7 +4598,7 @@
         <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4624,7 +4615,7 @@
         <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4641,7 +4632,7 @@
         <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4658,7 +4649,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4675,7 +4666,7 @@
         <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4692,7 +4683,7 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4709,7 +4700,7 @@
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4726,7 +4717,7 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4743,7 +4734,7 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -4760,7 +4751,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -4777,7 +4768,7 @@
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -4794,7 +4785,7 @@
         <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -4811,7 +4802,7 @@
         <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -4828,7 +4819,7 @@
         <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15">
         <v>76</v>
@@ -4845,7 +4836,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16">
         <v>380</v>
@@ -4862,7 +4853,7 @@
         <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <v>577</v>
@@ -4879,7 +4870,7 @@
         <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18">
         <v>770</v>
@@ -4896,7 +4887,7 @@
         <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19">
         <v>1246</v>
@@ -4913,7 +4904,7 @@
         <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20">
         <v>2215</v>
@@ -4930,7 +4921,7 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21">
         <v>3099</v>
@@ -4947,7 +4938,7 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>3907</v>
@@ -4964,7 +4955,7 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23">
         <v>4397</v>
@@ -4981,7 +4972,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24">
         <v>5175</v>
@@ -4998,7 +4989,7 @@
         <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>5728</v>
@@ -5015,7 +5006,7 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>4742</v>
@@ -5032,7 +5023,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <v>6539</v>
@@ -5049,7 +5040,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28">
         <v>6795</v>
@@ -5066,7 +5057,7 @@
         <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29">
         <v>6724</v>
@@ -5083,7 +5074,7 @@
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30">
         <v>7605</v>
@@ -5100,7 +5091,7 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>8365</v>
@@ -5117,7 +5108,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32">
         <v>9672</v>
@@ -5134,7 +5125,7 @@
         <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>10849</v>
@@ -5151,7 +5142,7 @@
         <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>11138</v>
@@ -5168,7 +5159,7 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>9510</v>
@@ -5185,7 +5176,7 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>12286</v>
@@ -5202,7 +5193,7 @@
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>12631</v>
@@ -5219,7 +5210,7 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>11270</v>
@@ -5236,7 +5227,7 @@
         <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39">
         <v>12529</v>
@@ -5253,7 +5244,7 @@
         <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40">
         <v>12169</v>
@@ -5270,7 +5261,7 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41">
         <v>11771</v>
@@ -5287,7 +5278,7 @@
         <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42">
         <v>13956</v>
@@ -5304,7 +5295,7 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43">
         <v>14868</v>
@@ -5321,7 +5312,7 @@
         <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <v>15988</v>
@@ -5338,7 +5329,7 @@
         <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45">
         <v>18356</v>
@@ -5355,7 +5346,7 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>17957</v>
@@ -5372,7 +5363,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47">
         <v>16913</v>
@@ -5389,7 +5380,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48">
         <v>17172</v>
@@ -5406,7 +5397,7 @@
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49">
         <v>14884</v>
@@ -5423,7 +5414,7 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50">
         <v>19025</v>
@@ -5440,7 +5431,7 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51">
         <v>18335</v>
@@ -5457,7 +5448,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52">
         <v>15837</v>
@@ -5474,7 +5465,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53">
         <v>21295</v>
@@ -5491,7 +5482,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54">
         <v>24962</v>
@@ -5508,7 +5499,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55">
         <v>22206</v>
@@ -5525,7 +5516,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56">
         <v>23597</v>
@@ -5542,7 +5533,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57">
         <v>21012</v>
@@ -5559,7 +5550,7 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58">
         <v>23414</v>
@@ -5576,7 +5567,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59">
         <v>20922</v>
@@ -5593,7 +5584,7 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60">
         <v>17077</v>
@@ -5610,7 +5601,7 @@
         <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61">
         <v>14745</v>
@@ -5627,7 +5618,7 @@
         <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62">
         <v>22342</v>
@@ -5644,7 +5635,7 @@
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63">
         <v>20447</v>
@@ -5661,7 +5652,7 @@
         <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64">
         <v>20763</v>
@@ -5678,7 +5669,7 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65">
         <v>18197</v>
@@ -5695,7 +5686,7 @@
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66">
         <v>24559</v>
@@ -5712,7 +5703,7 @@
         <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67">
         <v>22240</v>
@@ -5729,7 +5720,7 @@
         <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68">
         <v>29136</v>
@@ -5746,7 +5737,7 @@
         <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69">
         <v>28386</v>
@@ -5763,7 +5754,7 @@
         <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70">
         <v>27998</v>
@@ -5780,7 +5771,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71">
         <v>26493</v>
@@ -5797,7 +5788,7 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72">
         <v>24830</v>
@@ -5814,7 +5805,7 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C73">
         <v>27695</v>
@@ -5831,7 +5822,7 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74">
         <v>24893</v>
@@ -5848,7 +5839,7 @@
         <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75">
         <v>24515</v>
@@ -5865,7 +5856,7 @@
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C76">
         <v>31149</v>
@@ -5882,7 +5873,7 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77">
         <v>29635</v>
@@ -5899,7 +5890,7 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78">
         <v>32100</v>
@@ -5916,7 +5907,7 @@
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79">
         <v>34809</v>
@@ -5933,7 +5924,7 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80">
         <v>40471</v>
@@ -5950,7 +5941,7 @@
         <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81">
         <v>33037</v>
@@ -5967,7 +5958,7 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82">
         <v>39097</v>
@@ -5984,7 +5975,7 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C83">
         <v>31762</v>
@@ -6001,7 +5992,7 @@
         <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84">
         <v>31636</v>
@@ -6018,7 +6009,7 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85">
         <v>29580</v>
@@ -6035,7 +6026,7 @@
         <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86">
         <v>27623</v>
@@ -6052,7 +6043,7 @@
         <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87">
         <v>27268</v>
@@ -6069,7 +6060,7 @@
         <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88">
         <v>27180</v>
@@ -6086,7 +6077,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89">
         <v>22333</v>
@@ -6103,7 +6094,7 @@
         <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90">
         <v>29083</v>
@@ -6120,7 +6111,7 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C91">
         <v>28328</v>
@@ -6137,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C92">
         <v>35862</v>
@@ -6154,7 +6145,7 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C93">
         <v>33755</v>
@@ -6171,7 +6162,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94">
         <v>23948</v>
@@ -6188,7 +6179,7 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C95">
         <v>28359</v>
@@ -6205,7 +6196,7 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C96">
         <v>31288</v>
@@ -6222,7 +6213,7 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97">
         <v>30062</v>
@@ -6239,7 +6230,7 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98">
         <v>22384</v>
@@ -6256,7 +6247,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C99">
         <v>31698</v>
@@ -6273,7 +6264,7 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C100">
         <v>27735</v>
@@ -6290,7 +6281,7 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101">
         <v>26832</v>
@@ -6307,7 +6298,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C102">
         <v>29284</v>
@@ -6324,7 +6315,7 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103">
         <v>30033</v>
@@ -6341,7 +6332,7 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104">
         <v>34103</v>
@@ -6358,7 +6349,7 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105">
         <v>37479</v>
@@ -6375,7 +6366,7 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C106">
         <v>32286</v>
@@ -6392,7 +6383,7 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107">
         <v>25829</v>
@@ -6409,7 +6400,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108">
         <v>34062</v>
@@ -6426,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109">
         <v>30218</v>
@@ -6443,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110">
         <v>23635</v>
@@ -6460,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111">
         <v>32877</v>
@@ -6474,7 +6465,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -6491,7 +6482,7 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -6508,7 +6499,7 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -6525,7 +6516,7 @@
         <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -6542,7 +6533,7 @@
         <v>106</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -6559,7 +6550,7 @@
         <v>105</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -6576,7 +6567,7 @@
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -6593,7 +6584,7 @@
         <v>103</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119">
         <v>194</v>
@@ -6610,7 +6601,7 @@
         <v>102</v>
       </c>
       <c r="B120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120">
         <v>8199</v>
@@ -6627,7 +6618,7 @@
         <v>101</v>
       </c>
       <c r="B121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121">
         <v>10806</v>
@@ -6644,7 +6635,7 @@
         <v>100</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122">
         <v>12567</v>
@@ -6661,7 +6652,7 @@
         <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C123">
         <v>16200</v>
@@ -6678,7 +6669,7 @@
         <v>98</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124">
         <v>18040</v>
@@ -6695,7 +6686,7 @@
         <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125">
         <v>15036</v>
@@ -6712,7 +6703,7 @@
         <v>96</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C126">
         <v>18704</v>
@@ -6729,7 +6720,7 @@
         <v>95</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C127">
         <v>31916</v>
@@ -6746,7 +6737,7 @@
         <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128">
         <v>27954</v>
@@ -6763,7 +6754,7 @@
         <v>93</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C129">
         <v>25058</v>
@@ -6780,7 +6771,7 @@
         <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C130">
         <v>31632</v>
@@ -6797,7 +6788,7 @@
         <v>91</v>
       </c>
       <c r="B131" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C131">
         <v>37117</v>
@@ -6814,7 +6805,7 @@
         <v>90</v>
       </c>
       <c r="B132" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C132">
         <v>43658</v>
@@ -6831,7 +6822,7 @@
         <v>89</v>
       </c>
       <c r="B133" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C133">
         <v>35740</v>
@@ -6848,7 +6839,7 @@
         <v>88</v>
       </c>
       <c r="B134" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C134">
         <v>34171</v>
@@ -6865,7 +6856,7 @@
         <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C135">
         <v>39118</v>
@@ -6882,7 +6873,7 @@
         <v>86</v>
       </c>
       <c r="B136" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C136">
         <v>29426</v>
@@ -6899,7 +6890,7 @@
         <v>85</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C137">
         <v>23901</v>
@@ -6916,7 +6907,7 @@
         <v>84</v>
       </c>
       <c r="B138" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C138">
         <v>33381</v>
@@ -6933,7 +6924,7 @@
         <v>83</v>
       </c>
       <c r="B139" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C139">
         <v>45245</v>
@@ -6950,7 +6941,7 @@
         <v>82</v>
       </c>
       <c r="B140" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C140">
         <v>39648</v>
@@ -6967,7 +6958,7 @@
         <v>81</v>
       </c>
       <c r="B141" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C141">
         <v>31494</v>
@@ -6984,7 +6975,7 @@
         <v>80</v>
       </c>
       <c r="B142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C142">
         <v>42839</v>
@@ -7001,7 +6992,7 @@
         <v>79</v>
       </c>
       <c r="B143" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C143">
         <v>50168</v>
@@ -7018,7 +7009,7 @@
         <v>78</v>
       </c>
       <c r="B144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C144">
         <v>59980</v>
@@ -7035,7 +7026,7 @@
         <v>77</v>
       </c>
       <c r="B145" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C145">
         <v>44576</v>
@@ -7052,7 +7043,7 @@
         <v>76</v>
       </c>
       <c r="B146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C146">
         <v>37954</v>
@@ -7069,7 +7060,7 @@
         <v>75</v>
       </c>
       <c r="B147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C147">
         <v>46243</v>
@@ -7086,7 +7077,7 @@
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C148">
         <v>40968</v>
@@ -7103,7 +7094,7 @@
         <v>73</v>
       </c>
       <c r="B149" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C149">
         <v>36024</v>
@@ -7120,7 +7111,7 @@
         <v>72</v>
       </c>
       <c r="B150" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C150">
         <v>40820</v>
@@ -7137,7 +7128,7 @@
         <v>71</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C151">
         <v>54648</v>
@@ -7154,7 +7145,7 @@
         <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C152">
         <v>51569</v>
@@ -7171,7 +7162,7 @@
         <v>69</v>
       </c>
       <c r="B153" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C153">
         <v>42354</v>
@@ -7188,7 +7179,7 @@
         <v>68</v>
       </c>
       <c r="B154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C154">
         <v>49400</v>
@@ -7205,7 +7196,7 @@
         <v>67</v>
       </c>
       <c r="B155" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C155">
         <v>55038</v>
@@ -7222,7 +7213,7 @@
         <v>66</v>
       </c>
       <c r="B156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C156">
         <v>66413</v>
@@ -7239,7 +7230,7 @@
         <v>65</v>
       </c>
       <c r="B157" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C157">
         <v>51284</v>
@@ -7256,7 +7247,7 @@
         <v>64</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C158">
         <v>50625</v>
@@ -7273,7 +7264,7 @@
         <v>63</v>
       </c>
       <c r="B159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C159">
         <v>52341</v>
@@ -7290,7 +7281,7 @@
         <v>62</v>
       </c>
       <c r="B160" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C160">
         <v>48655</v>
@@ -7307,7 +7298,7 @@
         <v>61</v>
       </c>
       <c r="B161" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C161">
         <v>45143</v>
@@ -7324,7 +7315,7 @@
         <v>60</v>
       </c>
       <c r="B162" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C162">
         <v>45603</v>
@@ -7341,7 +7332,7 @@
         <v>59</v>
       </c>
       <c r="B163" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C163">
         <v>60065</v>
@@ -7358,7 +7349,7 @@
         <v>58</v>
       </c>
       <c r="B164" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C164">
         <v>59586</v>
@@ -7375,7 +7366,7 @@
         <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C165">
         <v>47934</v>
@@ -7392,7 +7383,7 @@
         <v>56</v>
       </c>
       <c r="B166" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C166">
         <v>52442</v>
@@ -7409,7 +7400,7 @@
         <v>55</v>
       </c>
       <c r="B167" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C167">
         <v>52437</v>
@@ -7426,7 +7417,7 @@
         <v>54</v>
       </c>
       <c r="B168" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C168">
         <v>79210</v>
@@ -7443,7 +7434,7 @@
         <v>53</v>
       </c>
       <c r="B169" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C169">
         <v>46661</v>
@@ -7460,7 +7451,7 @@
         <v>52</v>
       </c>
       <c r="B170" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C170">
         <v>37703</v>
@@ -7477,7 +7468,7 @@
         <v>51</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C171">
         <v>38098</v>
@@ -7494,7 +7485,7 @@
         <v>50</v>
       </c>
       <c r="B172" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C172">
         <v>50890</v>
@@ -7511,7 +7502,7 @@
         <v>49</v>
       </c>
       <c r="B173" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C173">
         <v>40017</v>
@@ -7528,7 +7519,7 @@
         <v>48</v>
       </c>
       <c r="B174" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C174">
         <v>38988</v>
@@ -7545,7 +7536,7 @@
         <v>47</v>
       </c>
       <c r="B175" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C175">
         <v>50916</v>
@@ -7562,7 +7553,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C176">
         <v>65452</v>
@@ -7579,7 +7570,7 @@
         <v>45</v>
       </c>
       <c r="B177" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C177">
         <v>41183</v>
@@ -7596,7 +7587,7 @@
         <v>44</v>
       </c>
       <c r="B178" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C178">
         <v>48559</v>
@@ -7613,7 +7604,7 @@
         <v>43</v>
       </c>
       <c r="B179" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C179">
         <v>52756</v>
@@ -7630,7 +7621,7 @@
         <v>42</v>
       </c>
       <c r="B180" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C180">
         <v>70522</v>
@@ -7647,7 +7638,7 @@
         <v>41</v>
       </c>
       <c r="B181" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C181">
         <v>53628</v>
@@ -7664,7 +7655,7 @@
         <v>40</v>
       </c>
       <c r="B182" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C182">
         <v>53437</v>
@@ -7681,7 +7672,7 @@
         <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C183">
         <v>49700</v>
@@ -7698,7 +7689,7 @@
         <v>38</v>
       </c>
       <c r="B184" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C184">
         <v>52418</v>
@@ -7715,7 +7706,7 @@
         <v>37</v>
       </c>
       <c r="B185" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C185">
         <v>44090</v>
@@ -7732,7 +7723,7 @@
         <v>36</v>
       </c>
       <c r="B186" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C186">
         <v>42978</v>
@@ -7749,7 +7740,7 @@
         <v>35</v>
       </c>
       <c r="B187" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C187">
         <v>61238</v>
@@ -7766,7 +7757,7 @@
         <v>34</v>
       </c>
       <c r="B188" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C188">
         <v>70553</v>
@@ -7783,7 +7774,7 @@
         <v>33</v>
       </c>
       <c r="B189" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C189">
         <v>49601</v>
@@ -7800,7 +7791,7 @@
         <v>32</v>
       </c>
       <c r="B190" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C190">
         <v>64253</v>
@@ -7817,7 +7808,7 @@
         <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C191">
         <v>71053</v>
@@ -7834,7 +7825,7 @@
         <v>30</v>
       </c>
       <c r="B192" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C192">
         <v>77579</v>
@@ -7851,7 +7842,7 @@
         <v>29</v>
       </c>
       <c r="B193" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C193">
         <v>56332</v>
@@ -7868,7 +7859,7 @@
         <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C194">
         <v>54691</v>
@@ -7885,7 +7876,7 @@
         <v>27</v>
       </c>
       <c r="B195" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C195">
         <v>50350</v>
@@ -7902,7 +7893,7 @@
         <v>26</v>
       </c>
       <c r="B196" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C196">
         <v>47433</v>
@@ -7919,7 +7910,7 @@
         <v>25</v>
       </c>
       <c r="B197" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C197">
         <v>40017</v>
@@ -7936,7 +7927,7 @@
         <v>24</v>
       </c>
       <c r="B198" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C198">
         <v>41277</v>
@@ -7953,7 +7944,7 @@
         <v>23</v>
       </c>
       <c r="B199" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C199">
         <v>51348</v>
@@ -7970,7 +7961,7 @@
         <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C200">
         <v>53703</v>
@@ -7987,7 +7978,7 @@
         <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C201">
         <v>39565</v>
@@ -8004,7 +7995,7 @@
         <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C202">
         <v>50974</v>
@@ -8021,7 +8012,7 @@
         <v>19</v>
       </c>
       <c r="B203" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C203">
         <v>50683</v>
@@ -8038,7 +8029,7 @@
         <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C204">
         <v>34139</v>
@@ -8055,7 +8046,7 @@
         <v>17</v>
       </c>
       <c r="B205" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C205">
         <v>43280</v>
@@ -8072,7 +8063,7 @@
         <v>16</v>
       </c>
       <c r="B206" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C206">
         <v>54912</v>
@@ -8089,7 +8080,7 @@
         <v>15</v>
       </c>
       <c r="B207" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C207">
         <v>49419</v>
@@ -8106,7 +8097,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C208">
         <v>48967</v>
@@ -8123,7 +8114,7 @@
         <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C209">
         <v>47402</v>
@@ -8140,7 +8131,7 @@
         <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C210">
         <v>42412</v>
@@ -8157,7 +8148,7 @@
         <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C211">
         <v>54293</v>
@@ -8174,7 +8165,7 @@
         <v>10</v>
       </c>
       <c r="B212" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C212">
         <v>61967</v>
@@ -8191,7 +8182,7 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C213">
         <v>49573</v>
@@ -8208,7 +8199,7 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C214">
         <v>57290</v>
@@ -8225,7 +8216,7 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C215">
         <v>54186</v>
@@ -8242,7 +8233,7 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C216">
         <v>69595</v>
@@ -8259,7 +8250,7 @@
         <v>5</v>
       </c>
       <c r="B217" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C217">
         <v>53889</v>
@@ -8276,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C218">
         <v>52211</v>
@@ -8293,7 +8284,7 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C219">
         <v>51205</v>
@@ -8310,7 +8301,7 @@
         <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C220">
         <v>50093</v>
@@ -8327,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C221">
         <v>49025</v>
@@ -8373,7 +8364,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>111</v>
@@ -8384,7 +8375,7 @@
         <v>110</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -8395,7 +8386,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -8406,7 +8397,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -8417,7 +8408,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -8428,7 +8419,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -8439,7 +8430,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -8450,7 +8441,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -8461,7 +8452,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -8472,7 +8463,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -8483,7 +8474,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -8494,7 +8485,7 @@
         <v>105</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -8505,7 +8496,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -8516,7 +8507,7 @@
         <v>104</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -8527,7 +8518,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -8538,7 +8529,7 @@
         <v>103</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -8549,7 +8540,7 @@
         <v>103</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="3">
         <v>194</v>
@@ -8560,7 +8551,7 @@
         <v>102</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
@@ -8571,7 +8562,7 @@
         <v>102</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="3">
         <v>8199</v>
@@ -8582,7 +8573,7 @@
         <v>101</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
@@ -8593,7 +8584,7 @@
         <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="3">
         <v>10806</v>
@@ -8604,7 +8595,7 @@
         <v>100</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
@@ -8615,7 +8606,7 @@
         <v>100</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="3">
         <v>12567</v>
@@ -8626,7 +8617,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="5">
         <v>7</v>
@@ -8637,7 +8628,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="3">
         <v>16200</v>
@@ -8648,7 +8639,7 @@
         <v>98</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="5">
         <v>6</v>
@@ -8659,7 +8650,7 @@
         <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3">
         <v>18040</v>
@@ -8670,7 +8661,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="5">
         <v>76</v>
@@ -8681,7 +8672,7 @@
         <v>97</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="3">
         <v>15036</v>
@@ -8692,7 +8683,7 @@
         <v>96</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="5">
         <v>380</v>
@@ -8703,7 +8694,7 @@
         <v>96</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="3">
         <v>18704</v>
@@ -8714,7 +8705,7 @@
         <v>95</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="5">
         <v>577</v>
@@ -8725,7 +8716,7 @@
         <v>95</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="3">
         <v>31916</v>
@@ -8736,7 +8727,7 @@
         <v>94</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="5">
         <v>770</v>
@@ -8747,7 +8738,7 @@
         <v>94</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="3">
         <v>27954</v>
@@ -8758,7 +8749,7 @@
         <v>93</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="5">
         <v>1246</v>
@@ -8769,7 +8760,7 @@
         <v>93</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="3">
         <v>25058</v>
@@ -8780,7 +8771,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="5">
         <v>2215</v>
@@ -8791,7 +8782,7 @@
         <v>92</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="3">
         <v>31632</v>
@@ -8802,7 +8793,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="5">
         <v>3099</v>
@@ -8813,7 +8804,7 @@
         <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="3">
         <v>37117</v>
@@ -8824,7 +8815,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="5">
         <v>3907</v>
@@ -8835,7 +8826,7 @@
         <v>90</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="3">
         <v>43658</v>
@@ -8846,7 +8837,7 @@
         <v>89</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="5">
         <v>4397</v>
@@ -8857,7 +8848,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="3">
         <v>35740</v>
@@ -8868,7 +8859,7 @@
         <v>88</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="5">
         <v>5175</v>
@@ -8879,7 +8870,7 @@
         <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="3">
         <v>34171</v>
@@ -8890,7 +8881,7 @@
         <v>87</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="5">
         <v>5728</v>
@@ -8901,7 +8892,7 @@
         <v>87</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3">
         <v>39118</v>
@@ -8912,7 +8903,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="5">
         <v>4742</v>
@@ -8923,7 +8914,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="3">
         <v>29426</v>
@@ -8934,7 +8925,7 @@
         <v>85</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="5">
         <v>6539</v>
@@ -8945,7 +8936,7 @@
         <v>85</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="3">
         <v>23901</v>
@@ -8956,7 +8947,7 @@
         <v>84</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="5">
         <v>6795</v>
@@ -8967,7 +8958,7 @@
         <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="3">
         <v>33381</v>
@@ -8978,7 +8969,7 @@
         <v>83</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="5">
         <v>6724</v>
@@ -8989,7 +8980,7 @@
         <v>83</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="3">
         <v>45245</v>
@@ -9000,7 +8991,7 @@
         <v>82</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="5">
         <v>7605</v>
@@ -9011,7 +9002,7 @@
         <v>82</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" s="3">
         <v>39648</v>
@@ -9022,7 +9013,7 @@
         <v>81</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="5">
         <v>8365</v>
@@ -9033,7 +9024,7 @@
         <v>81</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="3">
         <v>31494</v>
@@ -9044,7 +9035,7 @@
         <v>80</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" s="5">
         <v>9672</v>
@@ -9055,7 +9046,7 @@
         <v>80</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="3">
         <v>42839</v>
@@ -9066,7 +9057,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="5">
         <v>10849</v>
@@ -9077,7 +9068,7 @@
         <v>79</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="3">
         <v>50168</v>
@@ -9088,7 +9079,7 @@
         <v>78</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" s="5">
         <v>11138</v>
@@ -9099,7 +9090,7 @@
         <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" s="3">
         <v>59980</v>
@@ -9110,7 +9101,7 @@
         <v>77</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="5">
         <v>9510</v>
@@ -9121,7 +9112,7 @@
         <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" s="3">
         <v>44576</v>
@@ -9132,7 +9123,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C73" s="5">
         <v>12286</v>
@@ -9143,7 +9134,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" s="3">
         <v>37954</v>
@@ -9154,7 +9145,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75" s="5">
         <v>12631</v>
@@ -9165,7 +9156,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" s="3">
         <v>46243</v>
@@ -9176,7 +9167,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" s="5">
         <v>11270</v>
@@ -9187,7 +9178,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C78" s="3">
         <v>40968</v>
@@ -9198,7 +9189,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="5">
         <v>12529</v>
@@ -9209,7 +9200,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C80" s="3">
         <v>36024</v>
@@ -9220,7 +9211,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="5">
         <v>12169</v>
@@ -9231,7 +9222,7 @@
         <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="3">
         <v>40820</v>
@@ -9242,7 +9233,7 @@
         <v>71</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C83" s="5">
         <v>11771</v>
@@ -9253,7 +9244,7 @@
         <v>71</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" s="3">
         <v>54648</v>
@@ -9264,7 +9255,7 @@
         <v>70</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" s="5">
         <v>13956</v>
@@ -9275,7 +9266,7 @@
         <v>70</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="3">
         <v>51569</v>
@@ -9286,7 +9277,7 @@
         <v>69</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="5">
         <v>14868</v>
@@ -9297,7 +9288,7 @@
         <v>69</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="3">
         <v>42354</v>
@@ -9308,7 +9299,7 @@
         <v>68</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" s="5">
         <v>15988</v>
@@ -9319,7 +9310,7 @@
         <v>68</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="3">
         <v>49400</v>
@@ -9330,7 +9321,7 @@
         <v>67</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C91" s="5">
         <v>18356</v>
@@ -9341,7 +9332,7 @@
         <v>67</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C92" s="3">
         <v>55038</v>
@@ -9352,7 +9343,7 @@
         <v>66</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C93" s="5">
         <v>17957</v>
@@ -9363,7 +9354,7 @@
         <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" s="3">
         <v>66413</v>
@@ -9374,7 +9365,7 @@
         <v>65</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C95" s="5">
         <v>16913</v>
@@ -9385,7 +9376,7 @@
         <v>65</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C96" s="3">
         <v>51284</v>
@@ -9396,7 +9387,7 @@
         <v>64</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="5">
         <v>17172</v>
@@ -9407,7 +9398,7 @@
         <v>64</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" s="3">
         <v>50625</v>
@@ -9418,7 +9409,7 @@
         <v>63</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C99" s="5">
         <v>14884</v>
@@ -9429,7 +9420,7 @@
         <v>63</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C100" s="3">
         <v>52341</v>
@@ -9440,7 +9431,7 @@
         <v>62</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101" s="5">
         <v>19025</v>
@@ -9451,7 +9442,7 @@
         <v>62</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" s="3">
         <v>48655</v>
@@ -9462,7 +9453,7 @@
         <v>61</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="5">
         <v>18335</v>
@@ -9473,7 +9464,7 @@
         <v>61</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="3">
         <v>45143</v>
@@ -9484,7 +9475,7 @@
         <v>60</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" s="5">
         <v>15837</v>
@@ -9495,7 +9486,7 @@
         <v>60</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="3">
         <v>45603</v>
@@ -9506,7 +9497,7 @@
         <v>59</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="5">
         <v>21295</v>
@@ -9517,7 +9508,7 @@
         <v>59</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="3">
         <v>60065</v>
@@ -9528,7 +9519,7 @@
         <v>58</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="5">
         <v>24962</v>
@@ -9539,7 +9530,7 @@
         <v>58</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" s="3">
         <v>59586</v>
@@ -9550,7 +9541,7 @@
         <v>57</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" s="5">
         <v>22206</v>
@@ -9561,7 +9552,7 @@
         <v>57</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" s="3">
         <v>47934</v>
@@ -9572,7 +9563,7 @@
         <v>56</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" s="5">
         <v>23597</v>
@@ -9583,7 +9574,7 @@
         <v>56</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" s="3">
         <v>52442</v>
@@ -9594,7 +9585,7 @@
         <v>55</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" s="5">
         <v>21012</v>
@@ -9605,7 +9596,7 @@
         <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" s="3">
         <v>52437</v>
@@ -9616,7 +9607,7 @@
         <v>54</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" s="5">
         <v>23414</v>
@@ -9627,7 +9618,7 @@
         <v>54</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118" s="3">
         <v>79210</v>
@@ -9638,7 +9629,7 @@
         <v>53</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="5">
         <v>20922</v>
@@ -9649,7 +9640,7 @@
         <v>53</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="3">
         <v>46661</v>
@@ -9660,7 +9651,7 @@
         <v>52</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C121" s="5">
         <v>17077</v>
@@ -9671,7 +9662,7 @@
         <v>52</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122" s="3">
         <v>37703</v>
@@ -9682,7 +9673,7 @@
         <v>51</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" s="5">
         <v>14745</v>
@@ -9693,7 +9684,7 @@
         <v>51</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" s="3">
         <v>38098</v>
@@ -9704,7 +9695,7 @@
         <v>50</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C125" s="5">
         <v>22342</v>
@@ -9715,7 +9706,7 @@
         <v>50</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C126" s="3">
         <v>50890</v>
@@ -9726,7 +9717,7 @@
         <v>49</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C127" s="5">
         <v>20447</v>
@@ -9737,7 +9728,7 @@
         <v>49</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" s="3">
         <v>40017</v>
@@ -9748,7 +9739,7 @@
         <v>48</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C129" s="5">
         <v>20763</v>
@@ -9759,7 +9750,7 @@
         <v>48</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C130" s="3">
         <v>38988</v>
@@ -9770,7 +9761,7 @@
         <v>47</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C131" s="5">
         <v>18197</v>
@@ -9781,7 +9772,7 @@
         <v>47</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C132" s="3">
         <v>50916</v>
@@ -9792,7 +9783,7 @@
         <v>46</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C133" s="5">
         <v>24559</v>
@@ -9803,7 +9794,7 @@
         <v>46</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C134" s="3">
         <v>65452</v>
@@ -9814,7 +9805,7 @@
         <v>45</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C135" s="5">
         <v>22240</v>
@@ -9825,7 +9816,7 @@
         <v>45</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C136" s="3">
         <v>41183</v>
@@ -9836,7 +9827,7 @@
         <v>44</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C137" s="5">
         <v>29136</v>
@@ -9847,7 +9838,7 @@
         <v>44</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C138" s="3">
         <v>48559</v>
@@ -9858,7 +9849,7 @@
         <v>43</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C139" s="5">
         <v>28386</v>
@@ -9869,7 +9860,7 @@
         <v>43</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C140" s="3">
         <v>52756</v>
@@ -9880,7 +9871,7 @@
         <v>42</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C141" s="5">
         <v>27998</v>
@@ -9891,7 +9882,7 @@
         <v>42</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C142" s="3">
         <v>70522</v>
@@ -9902,7 +9893,7 @@
         <v>41</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C143" s="5">
         <v>26493</v>
@@ -9913,7 +9904,7 @@
         <v>41</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C144" s="3">
         <v>53628</v>
@@ -9924,7 +9915,7 @@
         <v>40</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C145" s="5">
         <v>24830</v>
@@ -9935,7 +9926,7 @@
         <v>40</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C146" s="3">
         <v>53437</v>
@@ -9946,7 +9937,7 @@
         <v>39</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C147" s="5">
         <v>27695</v>
@@ -9957,7 +9948,7 @@
         <v>39</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C148" s="3">
         <v>49700</v>
@@ -9968,7 +9959,7 @@
         <v>38</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C149" s="5">
         <v>24893</v>
@@ -9979,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C150" s="3">
         <v>52418</v>
@@ -9990,7 +9981,7 @@
         <v>37</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C151" s="5">
         <v>24515</v>
@@ -10001,7 +9992,7 @@
         <v>37</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C152" s="3">
         <v>44090</v>
@@ -10012,7 +10003,7 @@
         <v>36</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C153" s="5">
         <v>31149</v>
@@ -10023,7 +10014,7 @@
         <v>36</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C154" s="3">
         <v>42978</v>
@@ -10034,7 +10025,7 @@
         <v>35</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C155" s="5">
         <v>29635</v>
@@ -10045,7 +10036,7 @@
         <v>35</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C156" s="3">
         <v>61238</v>
@@ -10056,7 +10047,7 @@
         <v>34</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C157" s="5">
         <v>32100</v>
@@ -10067,7 +10058,7 @@
         <v>34</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C158" s="3">
         <v>70553</v>
@@ -10078,7 +10069,7 @@
         <v>33</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C159" s="5">
         <v>34809</v>
@@ -10089,7 +10080,7 @@
         <v>33</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C160" s="3">
         <v>49601</v>
@@ -10100,7 +10091,7 @@
         <v>32</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C161" s="5">
         <v>40471</v>
@@ -10111,7 +10102,7 @@
         <v>32</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C162" s="3">
         <v>64253</v>
@@ -10122,7 +10113,7 @@
         <v>31</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C163" s="5">
         <v>33037</v>
@@ -10133,7 +10124,7 @@
         <v>31</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C164" s="3">
         <v>71053</v>
@@ -10144,7 +10135,7 @@
         <v>30</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C165" s="5">
         <v>39097</v>
@@ -10155,7 +10146,7 @@
         <v>30</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C166" s="3">
         <v>77579</v>
@@ -10166,7 +10157,7 @@
         <v>29</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C167" s="5">
         <v>31762</v>
@@ -10177,7 +10168,7 @@
         <v>29</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C168" s="3">
         <v>56332</v>
@@ -10188,7 +10179,7 @@
         <v>28</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C169" s="5">
         <v>31636</v>
@@ -10199,7 +10190,7 @@
         <v>28</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C170" s="3">
         <v>54691</v>
@@ -10210,7 +10201,7 @@
         <v>27</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C171" s="5">
         <v>29580</v>
@@ -10221,7 +10212,7 @@
         <v>27</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C172" s="3">
         <v>50350</v>
@@ -10232,7 +10223,7 @@
         <v>26</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C173" s="5">
         <v>27623</v>
@@ -10243,7 +10234,7 @@
         <v>26</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C174" s="3">
         <v>47433</v>
@@ -10254,7 +10245,7 @@
         <v>25</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C175" s="5">
         <v>27268</v>
@@ -10265,7 +10256,7 @@
         <v>25</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C176" s="3">
         <v>40017</v>
@@ -10276,7 +10267,7 @@
         <v>24</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C177" s="5">
         <v>27180</v>
@@ -10287,7 +10278,7 @@
         <v>24</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C178" s="3">
         <v>41277</v>
@@ -10298,7 +10289,7 @@
         <v>23</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C179" s="5">
         <v>22333</v>
@@ -10309,7 +10300,7 @@
         <v>23</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C180" s="3">
         <v>51348</v>
@@ -10320,7 +10311,7 @@
         <v>22</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C181" s="5">
         <v>29083</v>
@@ -10331,7 +10322,7 @@
         <v>22</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C182" s="3">
         <v>53703</v>
@@ -10342,7 +10333,7 @@
         <v>21</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C183" s="5">
         <v>28328</v>
@@ -10353,7 +10344,7 @@
         <v>21</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C184" s="3">
         <v>39565</v>
@@ -10364,7 +10355,7 @@
         <v>20</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C185" s="5">
         <v>35862</v>
@@ -10375,7 +10366,7 @@
         <v>20</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C186" s="3">
         <v>50974</v>
@@ -10386,7 +10377,7 @@
         <v>19</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C187" s="5">
         <v>33755</v>
@@ -10397,7 +10388,7 @@
         <v>19</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C188" s="3">
         <v>50683</v>
@@ -10408,7 +10399,7 @@
         <v>18</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C189" s="5">
         <v>23948</v>
@@ -10419,7 +10410,7 @@
         <v>18</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C190" s="3">
         <v>34139</v>
@@ -10430,7 +10421,7 @@
         <v>17</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C191" s="5">
         <v>28359</v>
@@ -10441,7 +10432,7 @@
         <v>17</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C192" s="3">
         <v>43280</v>
@@ -10452,7 +10443,7 @@
         <v>16</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C193" s="5">
         <v>31288</v>
@@ -10463,7 +10454,7 @@
         <v>16</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C194" s="3">
         <v>54912</v>
@@ -10474,7 +10465,7 @@
         <v>15</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C195" s="5">
         <v>30062</v>
@@ -10485,7 +10476,7 @@
         <v>15</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C196" s="3">
         <v>49419</v>
@@ -10496,7 +10487,7 @@
         <v>14</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C197" s="5">
         <v>22384</v>
@@ -10507,7 +10498,7 @@
         <v>14</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C198" s="3">
         <v>48967</v>
@@ -10518,7 +10509,7 @@
         <v>13</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C199" s="5">
         <v>31698</v>
@@ -10529,7 +10520,7 @@
         <v>13</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C200" s="3">
         <v>47402</v>
@@ -10540,7 +10531,7 @@
         <v>12</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C201" s="5">
         <v>27735</v>
@@ -10551,7 +10542,7 @@
         <v>12</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C202" s="3">
         <v>42412</v>
@@ -10562,7 +10553,7 @@
         <v>11</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C203" s="5">
         <v>26832</v>
@@ -10573,7 +10564,7 @@
         <v>11</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C204" s="3">
         <v>54293</v>
@@ -10584,7 +10575,7 @@
         <v>10</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C205" s="5">
         <v>29284</v>
@@ -10595,7 +10586,7 @@
         <v>10</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C206" s="3">
         <v>61967</v>
@@ -10606,7 +10597,7 @@
         <v>9</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C207" s="5">
         <v>30033</v>
@@ -10617,7 +10608,7 @@
         <v>9</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C208" s="3">
         <v>49573</v>
@@ -10628,7 +10619,7 @@
         <v>8</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C209" s="5">
         <v>34103</v>
@@ -10639,7 +10630,7 @@
         <v>8</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C210" s="3">
         <v>57290</v>
@@ -10650,7 +10641,7 @@
         <v>7</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C211" s="5">
         <v>37479</v>
@@ -10661,7 +10652,7 @@
         <v>7</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C212" s="3">
         <v>54186</v>
@@ -10672,7 +10663,7 @@
         <v>6</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C213" s="5">
         <v>32286</v>
@@ -10683,7 +10674,7 @@
         <v>6</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C214" s="3">
         <v>69595</v>
@@ -10694,7 +10685,7 @@
         <v>5</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C215" s="5">
         <v>25829</v>
@@ -10705,7 +10696,7 @@
         <v>5</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C216" s="3">
         <v>53889</v>
@@ -10716,7 +10707,7 @@
         <v>4</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C217" s="5">
         <v>34062</v>
@@ -10727,7 +10718,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C218" s="3">
         <v>52211</v>
@@ -10738,7 +10729,7 @@
         <v>3</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C219" s="5">
         <v>30218</v>
@@ -10749,7 +10740,7 @@
         <v>3</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C220" s="3">
         <v>51205</v>
@@ -10760,7 +10751,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C221" s="5">
         <v>23635</v>
@@ -10771,7 +10762,7 @@
         <v>2</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C222" s="3">
         <v>50093</v>
@@ -10782,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C223" s="5">
         <v>32877</v>
@@ -10793,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C224" s="3">
         <v>49025</v>
